--- a/cp1/FB-05 Sapozhnyk, FB-05 Karas lab 1/Частота букв з пробілами.xlsx
+++ b/cp1/FB-05 Sapozhnyk, FB-05 Karas lab 1/Частота букв з пробілами.xlsx
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.06586</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01643</v>
+        <v>0.01397</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -505,7 +505,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03575</v>
+        <v>0.0358</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -513,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01794</v>
+        <v>0.01344</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -521,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0281</v>
+        <v>0.02531</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -529,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07101</v>
+        <v>0.06793</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -545,7 +545,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.00238</v>
+        <v>0.00272</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -553,7 +553,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.00916</v>
+        <v>0.00844</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -561,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.01217</v>
+        <v>0.01535</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -569,7 +569,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.05545</v>
+        <v>0.05439</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -577,7 +577,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.01518</v>
+        <v>0.0165</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -585,7 +585,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.01016</v>
+        <v>0.00859</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -593,7 +593,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.03475</v>
+        <v>0.02844</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -601,7 +601,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.04378</v>
+        <v>0.04315</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -609,7 +609,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.02973</v>
+        <v>0.02695</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -617,7 +617,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.05282</v>
+        <v>0.05543</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.09309000000000001</v>
+        <v>0.09086</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -633,7 +633,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.02221</v>
+        <v>0.02608</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -641,7 +641,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.03902</v>
+        <v>0.03763</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -649,7 +649,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.03801</v>
+        <v>0.04447</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -657,7 +657,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.04504</v>
+        <v>0.05208</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -665,7 +665,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.02359</v>
+        <v>0.02551</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -673,7 +673,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.00439</v>
+        <v>0.00134</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -681,7 +681,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.008659999999999999</v>
+        <v>0.00713</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -689,7 +689,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.00364</v>
+        <v>0.00285</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -697,7 +697,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.00966</v>
+        <v>0.01201</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -705,7 +705,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.0064</v>
+        <v>0.00717</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -713,7 +713,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.00251</v>
+        <v>0.00287</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -721,7 +721,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.00019</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -729,7 +729,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.01568</v>
+        <v>0.01696</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -737,7 +737,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.00489</v>
+        <v>0.00488</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -745,7 +745,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.01807</v>
+        <v>0.02206</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -753,7 +753,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.16447</v>
+        <v>0.16251</v>
       </c>
     </row>
   </sheetData>
